--- a/xlsx/bar.xlsx
+++ b/xlsx/bar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\code\incompressible\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/program/incompressible/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B99B9A9-0F6A-49E4-B654-C302CAA893A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B57EDAC9-1EAF-6345-905E-4313FD236242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17535" activeTab="1" xr2:uid="{BAAC01B2-EB4A-41F5-BF19-7E5CD6B89144}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="17540" activeTab="1" xr2:uid="{BAAC01B2-EB4A-41F5-BF19-7E5CD6B89144}"/>
   </bookViews>
   <sheets>
     <sheet name="h" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,19 +28,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>ndiv</t>
   </si>
   <si>
     <t>log₁₀h</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>12:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:2</t>
+  </si>
+  <si>
+    <t>12:3</t>
+  </si>
+  <si>
+    <t>12:4</t>
+  </si>
+  <si>
+    <t>12:5</t>
+  </si>
+  <si>
+    <t>12:6</t>
+  </si>
+  <si>
+    <t>12:7</t>
+  </si>
+  <si>
+    <t>12:8</t>
+  </si>
+  <si>
+    <t>12:9</t>
+  </si>
+  <si>
+    <t>12:10</t>
+  </si>
+  <si>
+    <t>12:11</t>
+  </si>
+  <si>
+    <t>12:12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +119,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,14 +446,14 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.125" customWidth="1"/>
-    <col min="2" max="2" width="51.625" customWidth="1"/>
-    <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="46.1640625" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,18 +470,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22D722B-C5AA-4EAD-9719-2205EF2E41B7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.625" customWidth="1"/>
-    <col min="2" max="2" width="52.25" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>NaN</v>
+      </c>
+      <c r="B2">
+        <v>2.1755949441632407</v>
+      </c>
+      <c r="C2">
+        <v>0.8724913556141761</v>
+      </c>
+      <c r="D2">
+        <v>-0.009545796764238355</v>
+      </c>
+      <c r="E2">
+        <v>-3.0617570851998095</v>
+      </c>
+      <c r="F2">
+        <v>-3.909987511220647</v>
+      </c>
+      <c r="G2">
+        <v>-3.9014239373240533</v>
+      </c>
+      <c r="H2">
+        <v>-3.8933376701837528</v>
+      </c>
+      <c r="I2">
+        <v>-3.9530133590441294</v>
+      </c>
+      <c r="J2">
+        <v>-3.9485228195868998</v>
+      </c>
+      <c r="K2">
+        <v>-3.950477713662138</v>
+      </c>
+      <c r="L2">
+        <v>-3.951988064901047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>NaN</v>
+      </c>
+      <c r="B3">
+        <v>1.74440446955537</v>
+      </c>
+      <c r="C3">
+        <v>1.143980243834754</v>
+      </c>
+      <c r="D3">
+        <v>1.2111233128175414</v>
+      </c>
+      <c r="E3">
+        <v>-0.8321877983028695</v>
+      </c>
+      <c r="F3">
+        <v>-4.918985488489275</v>
+      </c>
+      <c r="G3">
+        <v>-4.870997725146022</v>
+      </c>
+      <c r="H3">
+        <v>-4.866935553370154</v>
+      </c>
+      <c r="I3">
+        <v>-4.951809252711843</v>
+      </c>
+      <c r="J3">
+        <v>-4.946158197974815</v>
+      </c>
+      <c r="K3">
+        <v>-4.9462817355845115</v>
+      </c>
+      <c r="L3">
+        <v>-4.954180148263345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>NaN</v>
+      </c>
+      <c r="B4">
+        <v>NaN</v>
+      </c>
+      <c r="C4">
+        <v>0.8183489920650026</v>
+      </c>
+      <c r="D4">
+        <v>1.1366478752177684</v>
+      </c>
+      <c r="E4">
+        <v>-0.22418849182810344</v>
+      </c>
+      <c r="F4">
+        <v>-5.902762358215894</v>
+      </c>
+      <c r="G4">
+        <v>-5.816191321400663</v>
+      </c>
+      <c r="H4">
+        <v>-5.815584758032046</v>
+      </c>
+      <c r="I4">
+        <v>-5.924469332668426</v>
+      </c>
+      <c r="J4">
+        <v>-5.917753707940679</v>
+      </c>
+      <c r="K4">
+        <v>-5.915970210017342</v>
+      </c>
+      <c r="L4">
+        <v>-5.930622328285392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>NaN</v>
+      </c>
+      <c r="B5">
+        <v>NaN</v>
+      </c>
+      <c r="C5">
+        <v>NaN</v>
+      </c>
+      <c r="D5">
+        <v>1.6253010709637075</v>
+      </c>
+      <c r="E5">
+        <v>-0.15687270148010704</v>
+      </c>
+      <c r="F5">
+        <v>-6.8554831373058684</v>
+      </c>
+      <c r="G5">
+        <v>-6.741648817610272</v>
+      </c>
+      <c r="H5">
+        <v>-6.743434085824625</v>
+      </c>
+      <c r="I5">
+        <v>-6.869906884911628</v>
+      </c>
+      <c r="J5">
+        <v>-6.862730069770636</v>
+      </c>
+      <c r="K5">
+        <v>-6.8594416380872225</v>
+      </c>
+      <c r="L5">
+        <v>-6.879866369057661</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -445,11 +681,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1965EA-E63B-406B-AABD-B0B02C511B4F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/bar.xlsx
+++ b/xlsx/bar.xlsx
@@ -470,7 +470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22D722B-C5AA-4EAD-9719-2205EF2E41B7}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -482,7 +482,7 @@
     <col min="2" max="2" width="52.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:26">
       <c r="A1" t="s" s="1">
         <v>3</v>
       </c>
@@ -521,83 +521,119 @@
       </c>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>NaN</v>
       </c>
       <c r="B2">
-        <v>2.1755949441632407</v>
+        <v>3.204305483221512</v>
       </c>
       <c r="C2">
-        <v>0.8724913556141761</v>
+        <v>0.8476183267409089</v>
       </c>
       <c r="D2">
-        <v>-0.009545796764238355</v>
+        <v>0.16328070675724315</v>
       </c>
       <c r="E2">
-        <v>-3.0617570851998095</v>
+        <v>-3.0617570851997145</v>
       </c>
       <c r="F2">
-        <v>-3.909987511220647</v>
+        <v>-3.9099875112207165</v>
       </c>
       <c r="G2">
-        <v>-3.9014239373240533</v>
+        <v>-3.9014239373240143</v>
       </c>
       <c r="H2">
-        <v>-3.8933376701837528</v>
+        <v>-3.8933376701837616</v>
       </c>
       <c r="I2">
-        <v>-3.9530133590441294</v>
+        <v>-3.9530133590441334</v>
       </c>
       <c r="J2">
-        <v>-3.9485228195868998</v>
+        <v>-3.94852281958699</v>
       </c>
       <c r="K2">
-        <v>-3.950477713662138</v>
+        <v>-3.9504777136621065</v>
       </c>
       <c r="L2">
-        <v>-3.951988064901047</v>
+        <v>-3.9519880649010086</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>NaN</v>
       </c>
       <c r="B3">
-        <v>1.74440446955537</v>
+        <v>NaN</v>
       </c>
       <c r="C3">
-        <v>1.143980243834754</v>
+        <v>NaN</v>
       </c>
       <c r="D3">
-        <v>1.2111233128175414</v>
+        <v>1.0253861264183515</v>
       </c>
       <c r="E3">
-        <v>-0.8321877983028695</v>
+        <v>2.883047163671655</v>
       </c>
       <c r="F3">
-        <v>-4.918985488489275</v>
+        <v>0.6259585590017176</v>
       </c>
       <c r="G3">
-        <v>-4.870997725146022</v>
+        <v>-0.02368805181137829</v>
       </c>
       <c r="H3">
-        <v>-4.866935553370154</v>
+        <v>-0.09368052406960752</v>
       </c>
       <c r="I3">
-        <v>-4.951809252711843</v>
+        <v>0.9006348848568354</v>
       </c>
       <c r="J3">
-        <v>-4.946158197974815</v>
+        <v>-0.8057113434743548</v>
       </c>
       <c r="K3">
-        <v>-4.9462817355845115</v>
+        <v>-3.2996106904063605</v>
       </c>
       <c r="L3">
-        <v>-4.954180148263345</v>
+        <v>-4.9189854884894455</v>
+      </c>
+      <c r="M3">
+        <v>-4.866080650242758</v>
+      </c>
+      <c r="N3">
+        <v>-4.870997725146173</v>
+      </c>
+      <c r="O3">
+        <v>-4.867860030597669</v>
+      </c>
+      <c r="P3">
+        <v>-4.8669355533705385</v>
+      </c>
+      <c r="Q3">
+        <v>-4.868316992843383</v>
+      </c>
+      <c r="R3">
+        <v>-4.951809252712031</v>
+      </c>
+      <c r="S3">
+        <v>-4.944764016731146</v>
+      </c>
+      <c r="T3">
+        <v>-4.946158197974824</v>
+      </c>
+      <c r="U3">
+        <v>-4.947616952312933</v>
+      </c>
+      <c r="V3">
+        <v>-4.94628173558471</v>
+      </c>
+      <c r="W3">
+        <v>-4.943766136373959</v>
+      </c>
+      <c r="X3">
+        <v>-4.954180148263913</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>NaN</v>
       </c>
@@ -605,72 +641,156 @@
         <v>NaN</v>
       </c>
       <c r="C4">
-        <v>0.8183489920650026</v>
+        <v>NaN</v>
       </c>
       <c r="D4">
-        <v>1.1366478752177684</v>
+        <v>NaN</v>
       </c>
       <c r="E4">
-        <v>-0.22418849182810344</v>
+        <v>NaN</v>
       </c>
       <c r="F4">
-        <v>-5.902762358215894</v>
+        <v>NaN</v>
       </c>
       <c r="G4">
-        <v>-5.816191321400663</v>
+        <v>NaN</v>
       </c>
       <c r="H4">
-        <v>-5.815584758032046</v>
+        <v>NaN</v>
       </c>
       <c r="I4">
-        <v>-5.924469332668426</v>
+        <v>NaN</v>
       </c>
       <c r="J4">
-        <v>-5.917753707940679</v>
+        <v>NaN</v>
       </c>
       <c r="K4">
-        <v>-5.915970210017342</v>
+        <v>NaN</v>
       </c>
       <c r="L4">
-        <v>-5.930622328285392</v>
+        <v>1.7622663538654573</v>
+      </c>
+      <c r="M4">
+        <v>0.18476103245291645</v>
+      </c>
+      <c r="N4">
+        <v>0.43722082445996463</v>
+      </c>
+      <c r="O4">
+        <v>0.15209269493248664</v>
+      </c>
+      <c r="P4">
+        <v>1.0774783799447665</v>
+      </c>
+      <c r="Q4">
+        <v>0.5994382007285076</v>
+      </c>
+      <c r="R4">
+        <v>0.16784182125370356</v>
+      </c>
+      <c r="S4">
+        <v>0.47493645059807416</v>
+      </c>
+      <c r="T4">
+        <v>-0.0942449003633836</v>
+      </c>
+      <c r="U4">
+        <v>-0.36503786606187405</v>
+      </c>
+      <c r="V4">
+        <v>-0.8946899533852594</v>
+      </c>
+      <c r="W4">
+        <v>-2.650021020388579</v>
+      </c>
+      <c r="X4">
+        <v>-5.902762358220475</v>
+      </c>
+      <c r="Y4">
+        <v>-5.806200380009346</v>
+      </c>
+      <c r="Z4">
+        <v>-5.8130368275648845</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:26">
       <c r="A5">
-        <v>NaN</v>
+        <v>-6.735157233992178</v>
       </c>
       <c r="B5">
-        <v>NaN</v>
+        <v>-6.737560072683306</v>
       </c>
       <c r="C5">
-        <v>NaN</v>
+        <v>-6.739401758971096</v>
       </c>
       <c r="D5">
-        <v>1.6253010709637075</v>
+        <v>-6.740650273592632</v>
       </c>
       <c r="E5">
-        <v>-0.15687270148010704</v>
+        <v>-6.741353003832694</v>
       </c>
       <c r="F5">
-        <v>-6.8554831373058684</v>
+        <v>-6.741664656888906</v>
       </c>
       <c r="G5">
-        <v>-6.741648817610272</v>
+        <v>-6.7416488176763405</v>
       </c>
       <c r="H5">
-        <v>-6.743434085824625</v>
+        <v>-6.741565646269616</v>
       </c>
       <c r="I5">
-        <v>-6.869906884911628</v>
+        <v>-6.741463363280867</v>
       </c>
       <c r="J5">
-        <v>-6.862730069770636</v>
+        <v>-6.7414405247099625</v>
       </c>
       <c r="K5">
-        <v>-6.8594416380872225</v>
+        <v>-6.741495266937815</v>
       </c>
       <c r="L5">
-        <v>-6.879866369057661</v>
+        <v>-6.742051470351322</v>
+      </c>
+      <c r="M5">
+        <v>-6.742708240850827</v>
+      </c>
+      <c r="N5">
+        <v>-6.743453427852193</v>
+      </c>
+      <c r="O5">
+        <v>-6.743434085880483</v>
+      </c>
+      <c r="P5">
+        <v>0.3595676881315047</v>
+      </c>
+      <c r="Q5">
+        <v>1.7116990557333303</v>
+      </c>
+      <c r="R5">
+        <v>0.8215088409508905</v>
+      </c>
+      <c r="S5">
+        <v>-0.3707942637997538</v>
+      </c>
+      <c r="T5">
+        <v>-0.4997142599387779</v>
+      </c>
+      <c r="U5">
+        <v>-0.29971407770798963</v>
+      </c>
+      <c r="V5">
+        <v>-6.8554831372930245</v>
+      </c>
+      <c r="W5">
+        <v>-6.732221675623519</v>
+      </c>
+      <c r="X5">
+        <v>-6.735157233992178</v>
+      </c>
+      <c r="Y5">
+        <v>-6.737560072683306</v>
+      </c>
+      <c r="Z5">
+        <v>-6.739401758971096</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/bar.xlsx
+++ b/xlsx/bar.xlsx
@@ -801,12 +801,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1965EA-E63B-406B-AABD-B0B02C511B4F}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>2.31999094327281</v>
+      </c>
+      <c r="B2">
+        <v>1.576635939951447</v>
+      </c>
+      <c r="C2">
+        <v>-0.843162618726439</v>
+      </c>
+      <c r="D2">
+        <v>-14.7210919592746</v>
+      </c>
+      <c r="E2">
+        <v>-14.879606378276558</v>
+      </c>
+      <c r="F2">
+        <v>-14.529859658710498</v>
+      </c>
+      <c r="G2">
+        <v>-14.605764453205305</v>
+      </c>
+      <c r="H2">
+        <v>-14.59304148571263</v>
+      </c>
+      <c r="I2">
+        <v>-14.700134803827412</v>
+      </c>
+      <c r="J2">
+        <v>-14.91022947657866</v>
+      </c>
+      <c r="K2">
+        <v>-14.358198304943967</v>
+      </c>
+      <c r="L2">
+        <v>-14.21889760518811</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/bar.xlsx
+++ b/xlsx/bar.xlsx
@@ -809,40 +809,40 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>2.31999094327281</v>
+        <v>1.7829815534878595</v>
       </c>
       <c r="B2">
-        <v>1.576635939951447</v>
+        <v>1.2894472580066354</v>
       </c>
       <c r="C2">
-        <v>-0.843162618726439</v>
+        <v>-1.2494721562869286</v>
       </c>
       <c r="D2">
-        <v>-14.7210919592746</v>
+        <v>-14.707574973547315</v>
       </c>
       <c r="E2">
-        <v>-14.879606378276558</v>
+        <v>-14.661069345949093</v>
       </c>
       <c r="F2">
-        <v>-14.529859658710498</v>
+        <v>-14.742948398980955</v>
       </c>
       <c r="G2">
-        <v>-14.605764453205305</v>
+        <v>-14.822207885819179</v>
       </c>
       <c r="H2">
-        <v>-14.59304148571263</v>
+        <v>-14.79857687341914</v>
       </c>
       <c r="I2">
-        <v>-14.700134803827412</v>
+        <v>-14.807434552584347</v>
       </c>
       <c r="J2">
-        <v>-14.91022947657866</v>
+        <v>-15.03904366851614</v>
       </c>
       <c r="K2">
-        <v>-14.358198304943967</v>
+        <v>-14.489920495422123</v>
       </c>
       <c r="L2">
-        <v>-14.21889760518811</v>
+        <v>-14.41999551274989</v>
       </c>
     </row>
   </sheetData>
